--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1E815-0E56-4ED1-8C1F-E1EC1E2CA797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C16BFC-3E4D-44C3-948A-5FE846BE4F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,19 +111,19 @@
     <t>usuarioApr</t>
   </si>
   <si>
+    <t>D75356820</t>
+  </si>
+  <si>
+    <t>75356819</t>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:14:41</t>
+  </si>
+  <si>
     <t>ASARMIENTOS1</t>
   </si>
   <si>
-    <t>D75356820</t>
-  </si>
-  <si>
-    <t>24 abr. 2023, 10:47:34</t>
-  </si>
-  <si>
-    <t>75356819</t>
-  </si>
-  <si>
-    <t>24 abr. 2023, 10:50:15</t>
+    <t>26 jun. 2023, 18:16:32</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>

--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C16BFC-3E4D-44C3-948A-5FE846BE4F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A9548-A19C-49EB-9D53-8C54E5856F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>19980112</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -111,19 +108,22 @@
     <t>usuarioApr</t>
   </si>
   <si>
-    <t>D75356820</t>
-  </si>
-  <si>
-    <t>75356819</t>
-  </si>
-  <si>
-    <t>26 jun. 2023, 18:14:41</t>
-  </si>
-  <si>
     <t>ASARMIENTOS1</t>
   </si>
   <si>
-    <t>26 jun. 2023, 18:16:32</t>
+    <t>28 jun. 2023, 14:25:21</t>
+  </si>
+  <si>
+    <t>D11122548</t>
+  </si>
+  <si>
+    <t>11122548</t>
+  </si>
+  <si>
+    <t>19980101</t>
+  </si>
+  <si>
+    <t>2 jul. 2023, 17:15:22</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,6 +478,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
@@ -521,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -535,16 +536,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -562,22 +563,22 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
       </c>
       <c r="P2" t="s">
         <v>32</v>

--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A9548-A19C-49EB-9D53-8C54E5856F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF0DCA-19E4-4CCF-BC4B-D9EAF7E62D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,19 +111,19 @@
     <t>ASARMIENTOS1</t>
   </si>
   <si>
-    <t>28 jun. 2023, 14:25:21</t>
-  </si>
-  <si>
-    <t>D11122548</t>
-  </si>
-  <si>
-    <t>11122548</t>
-  </si>
-  <si>
     <t>19980101</t>
   </si>
   <si>
     <t>2 jul. 2023, 17:15:22</t>
+  </si>
+  <si>
+    <t>D75356915</t>
+  </si>
+  <si>
+    <t>75356915</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 21:48:10</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,10 +542,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -563,7 +563,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>

--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF0DCA-19E4-4CCF-BC4B-D9EAF7E62D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FCF997-A2CD-4880-9D4C-31F9962D2353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaClienteControlDual" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>usuario</t>
   </si>
@@ -102,9 +102,6 @@
     <t/>
   </si>
   <si>
-    <t>ASARMIENTOA1</t>
-  </si>
-  <si>
     <t>usuarioApr</t>
   </si>
   <si>
@@ -114,16 +111,46 @@
     <t>19980101</t>
   </si>
   <si>
-    <t>2 jul. 2023, 17:15:22</t>
-  </si>
-  <si>
-    <t>D75356915</t>
-  </si>
-  <si>
-    <t>75356915</t>
-  </si>
-  <si>
-    <t>3 ago. 2023, 21:48:10</t>
+    <t>profesion</t>
+  </si>
+  <si>
+    <t>ubigeo</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>ABOGADO</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>claynes@gmail.com</t>
+  </si>
+  <si>
+    <t>D75357110</t>
+  </si>
+  <si>
+    <t>75357110</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 08:58:12</t>
+  </si>
+  <si>
+    <t>dmoralesr</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 09:01:09</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 09:01:53</t>
   </si>
 </sst>
 </file>
@@ -131,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +168,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,10 +210,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,8 +223,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,10 +519,11 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="14" max="17" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,30 +561,42 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -563,7 +614,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
@@ -572,19 +623,34 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>32</v>
+      <c r="T2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{BA57058B-6241-4360-ADA3-75D5C675223A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FCF997-A2CD-4880-9D4C-31F9962D2353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA2D411-A98C-44F6-89A5-9779C025AFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaClienteControlDual" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>usuario</t>
   </si>
@@ -105,9 +105,6 @@
     <t>usuarioApr</t>
   </si>
   <si>
-    <t>ASARMIENTOS1</t>
-  </si>
-  <si>
     <t>19980101</t>
   </si>
   <si>
@@ -135,22 +132,19 @@
     <t>claynes@gmail.com</t>
   </si>
   <si>
-    <t>D75357110</t>
-  </si>
-  <si>
-    <t>75357110</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 08:58:12</t>
-  </si>
-  <si>
-    <t>dmoralesr</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 09:01:09</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 09:01:53</t>
+    <t>ASARMIENTOA1</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 09:43:27</t>
+  </si>
+  <si>
+    <t>D75357116</t>
+  </si>
+  <si>
+    <t>75357116</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 09:51:20</t>
   </si>
 </sst>
 </file>
@@ -508,7 +502,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,16 +555,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>25</v>
@@ -587,16 +581,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -614,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
@@ -623,19 +617,19 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
@@ -644,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA2D411-A98C-44F6-89A5-9779C025AFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2FD64-C617-4DF6-97D6-2B0345FB9439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaClienteControlDual" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>usuario</t>
   </si>
@@ -132,26 +132,25 @@
     <t>claynes@gmail.com</t>
   </si>
   <si>
+    <t>btorres</t>
+  </si>
+  <si>
+    <t>D75357120</t>
+  </si>
+  <si>
+    <t>75357120</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 15:18:50</t>
+  </si>
+  <si>
     <t>ASARMIENTOA1</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 09:43:27</t>
-  </si>
-  <si>
-    <t>D75357116</t>
-  </si>
-  <si>
-    <t>75357116</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 09:51:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,20 +500,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="14" max="17" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -587,10 +587,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -629,7 +629,7 @@
         <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
@@ -638,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/AltaClienteControlDual.xlsx
+++ b/src/Excel/entregable2/AltaClienteControlDual.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2FD64-C617-4DF6-97D6-2B0345FB9439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAFD845-B8A1-44B2-8985-41955DEEB54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>usuario</t>
   </si>
@@ -96,9 +96,6 @@
     <t>asd</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -135,22 +132,29 @@
     <t>btorres</t>
   </si>
   <si>
-    <t>D75357120</t>
-  </si>
-  <si>
-    <t>75357120</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 15:18:50</t>
-  </si>
-  <si>
-    <t>ASARMIENTOA1</t>
+    <t>atrujillo</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 12:50:51</t>
+  </si>
+  <si>
+    <t>D75357123</t>
+  </si>
+  <si>
+    <t>75357123</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 12:55:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,21 +504,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="14" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -555,19 +560,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -581,16 +586,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -608,7 +613,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
@@ -617,28 +622,28 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
